--- a/Tests/emails.xlsx
+++ b/Tests/emails.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ediko\OneDrive\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\source\repos\Nis\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE3BD12-F524-498C-8663-100DF0FD04C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE769BA6-3772-4153-9B7A-A080833DC6DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="15468" windowHeight="8964" xr2:uid="{90F52B2F-FC39-461D-9878-921269E0AA83}"/>
+    <workbookView xWindow="4944" yWindow="1080" windowWidth="17280" windowHeight="8964" xr2:uid="{90F52B2F-FC39-461D-9878-921269E0AA83}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -33,14 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Email</t>
   </si>
   <si>
-    <t>olefir-eduard@mail.ru</t>
-  </si>
-  <si>
     <t>erolefir@edu.hse.ru</t>
   </si>
   <si>
@@ -53,9 +50,6 @@
     <t>Edik</t>
   </si>
   <si>
-    <t>EDIK</t>
-  </si>
-  <si>
     <t>Ilya</t>
   </si>
   <si>
@@ -66,9 +60,6 @@
   </si>
   <si>
     <t>10 laba</t>
-  </si>
-  <si>
-    <t>11 laba</t>
   </si>
 </sst>
 </file>
@@ -436,7 +427,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -449,50 +440,41 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{17C08E51-6C8E-4068-89D7-453367CA5184}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{8CA40A12-6D61-47A2-B7F0-1CBAD4364A71}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{D41E7B34-FFFD-43A5-B1CF-FA8DAD14602E}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{8CA40A12-6D61-47A2-B7F0-1CBAD4364A71}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{D41E7B34-FFFD-43A5-B1CF-FA8DAD14602E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tests/emails.xlsx
+++ b/Tests/emails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\source\repos\Nis\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE769BA6-3772-4153-9B7A-A080833DC6DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8CF424-5F1C-4CDC-8F51-46823DE36AA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4944" yWindow="1080" windowWidth="17280" windowHeight="8964" xr2:uid="{90F52B2F-FC39-461D-9878-921269E0AA83}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Email</t>
   </si>
@@ -47,16 +47,10 @@
     <t>iipchelintsev@edu.hse.ru</t>
   </si>
   <si>
-    <t>Edik</t>
-  </si>
-  <si>
     <t>Ilya</t>
   </si>
   <si>
     <t>Title</t>
-  </si>
-  <si>
-    <t>9 laba</t>
   </si>
   <si>
     <t>10 laba</t>
@@ -424,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B36C1A5-3A1F-4A80-A664-7365BF7C56CA}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -443,38 +437,29 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" t="s">
-        <v>4</v>
+      <c r="A2" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
+      <c r="B3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{8CA40A12-6D61-47A2-B7F0-1CBAD4364A71}"/>
-    <hyperlink ref="A4" r:id="rId2" xr:uid="{D41E7B34-FFFD-43A5-B1CF-FA8DAD14602E}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{8CA40A12-6D61-47A2-B7F0-1CBAD4364A71}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{D41E7B34-FFFD-43A5-B1CF-FA8DAD14602E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tests/emails.xlsx
+++ b/Tests/emails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\source\repos\Nis\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8CF424-5F1C-4CDC-8F51-46823DE36AA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7195ED3-EA4D-4F06-9B14-A1C86249CFAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4944" yWindow="1080" windowWidth="17280" windowHeight="8964" xr2:uid="{90F52B2F-FC39-461D-9878-921269E0AA83}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Email</t>
   </si>
@@ -54,6 +54,48 @@
   </si>
   <si>
     <t>10 laba</t>
+  </si>
+  <si>
+    <t>Edik</t>
+  </si>
+  <si>
+    <t>11 laba</t>
+  </si>
+  <si>
+    <t>erolefir@miem.hse.ru</t>
+  </si>
+  <si>
+    <t>olefir-eduard@mail.ru</t>
+  </si>
+  <si>
+    <t>efsefsefsfsefsefse</t>
+  </si>
+  <si>
+    <t>EDIK</t>
+  </si>
+  <si>
+    <t>EEEEEEDIIIIIIkK</t>
+  </si>
+  <si>
+    <t>12 laba</t>
+  </si>
+  <si>
+    <t>13 laba</t>
+  </si>
+  <si>
+    <t>No name</t>
+  </si>
+  <si>
+    <t>I don't care</t>
+  </si>
+  <si>
+    <t>bigwell5@mail.ru</t>
+  </si>
+  <si>
+    <t>ILYA</t>
+  </si>
+  <si>
+    <t>14 laba</t>
   </si>
 </sst>
 </file>
@@ -418,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B36C1A5-3A1F-4A80-A664-7365BF7C56CA}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -444,6 +486,9 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
@@ -454,12 +499,62 @@
       </c>
       <c r="B3" t="s">
         <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{8CA40A12-6D61-47A2-B7F0-1CBAD4364A71}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{D41E7B34-FFFD-43A5-B1CF-FA8DAD14602E}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{A9054544-D91D-462F-81B5-F118F438A5EB}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{6CFE3F84-0180-41E0-AD6E-B48A2A0837BB}"/>
+    <hyperlink ref="A7" r:id="rId5" xr:uid="{91FB11A4-06C6-41BD-81AC-9510A96A7C48}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tests/emails.xlsx
+++ b/Tests/emails.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\source\repos\Nis\Tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ediko\source\repos\Nis\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7195ED3-EA4D-4F06-9B14-A1C86249CFAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC0F182-C699-47BF-BABF-956F9BE376EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4944" yWindow="1080" windowWidth="17280" windowHeight="8964" xr2:uid="{90F52B2F-FC39-461D-9878-921269E0AA83}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="15468" windowHeight="8964" xr2:uid="{90F52B2F-FC39-461D-9878-921269E0AA83}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Email</t>
   </si>
@@ -47,55 +47,31 @@
     <t>iipchelintsev@edu.hse.ru</t>
   </si>
   <si>
-    <t>Ilya</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>10 laba</t>
-  </si>
-  <si>
-    <t>Edik</t>
-  </si>
-  <si>
-    <t>11 laba</t>
-  </si>
-  <si>
-    <t>erolefir@miem.hse.ru</t>
-  </si>
-  <si>
-    <t>olefir-eduard@mail.ru</t>
-  </si>
-  <si>
     <t>efsefsefsfsefsefse</t>
   </si>
   <si>
-    <t>EDIK</t>
-  </si>
-  <si>
-    <t>EEEEEEDIIIIIIkK</t>
-  </si>
-  <si>
-    <t>12 laba</t>
-  </si>
-  <si>
-    <t>13 laba</t>
-  </si>
-  <si>
     <t>No name</t>
   </si>
   <si>
-    <t>I don't care</t>
-  </si>
-  <si>
-    <t>bigwell5@mail.ru</t>
-  </si>
-  <si>
-    <t>ILYA</t>
-  </si>
-  <si>
-    <t>14 laba</t>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Эдуард</t>
+  </si>
+  <si>
+    <t>Илья</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Одинцово</t>
+  </si>
+  <si>
+    <t>Москва</t>
+  </si>
+  <si>
+    <t>No data</t>
   </si>
 </sst>
 </file>
@@ -460,18 +436,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B36C1A5-3A1F-4A80-A664-7365BF7C56CA}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -479,82 +457,64 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
+      <c r="C2">
+        <v>89543245765</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>81234567895</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>89654345654</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{8CA40A12-6D61-47A2-B7F0-1CBAD4364A71}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{D41E7B34-FFFD-43A5-B1CF-FA8DAD14602E}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{A9054544-D91D-462F-81B5-F118F438A5EB}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{6CFE3F84-0180-41E0-AD6E-B48A2A0837BB}"/>
-    <hyperlink ref="A7" r:id="rId5" xr:uid="{91FB11A4-06C6-41BD-81AC-9510A96A7C48}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
